--- a/resources/experiment 2/metrics/MAPE/upto time/Retinopatía de fondo (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Retinopatía de fondo (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1.257950734453439e+16</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.257950734453438e+16</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.257950734453439e+16</v>
-      </c>
       <c r="D2" t="n">
-        <v>1.257950734453439e+16</v>
+        <v>1.257950734453438e+16</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>996320475353596.2</v>
+        <v>2234238614511.596</v>
       </c>
       <c r="C3" t="n">
-        <v>996330766241836.6</v>
+        <v>2217121683463.108</v>
       </c>
       <c r="D3" t="n">
-        <v>996330766241836.6</v>
+        <v>820801723566729.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187390134209557.6</v>
+        <v>2302415974387.048</v>
       </c>
       <c r="C4" t="n">
-        <v>187037818204162.2</v>
+        <v>2159218901556.084</v>
       </c>
       <c r="D4" t="n">
-        <v>187037818204162.2</v>
+        <v>247277787747725.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7424615680985723</v>
+        <v>333746347753674.9</v>
       </c>
       <c r="C5" t="n">
-        <v>7424615680985723</v>
+        <v>1787343908159784</v>
       </c>
       <c r="D5" t="n">
-        <v>7424615680985723</v>
+        <v>5355413201749120</v>
       </c>
     </row>
   </sheetData>
